--- a/src/test/resources/LoginList.xlsx
+++ b/src/test/resources/LoginList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihsan\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ihsan\IdeaProjects\Batch4_SeleniumCucumber_JUnit_IA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103E48F8-6AD1-4695-A43A-3952FB1C9EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD3195-D4A4-4527-9E8E-C7DE3896AC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
   <si>
     <t>Your Name</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>module Name</t>
+  </si>
+  <si>
+    <t>My Profile</t>
   </si>
 </sst>
 </file>
@@ -932,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1242,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D8DB64-3C2D-4923-B33A-9078A63670CF}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,9 +1262,10 @@
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="9.5546875" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1286,8 +1293,11 @@
       <c r="I1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1315,8 +1325,11 @@
       <c r="I2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1344,8 +1357,11 @@
       <c r="I3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1373,8 +1389,11 @@
       <c r="I4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1421,11 @@
       <c r="I5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1431,8 +1453,11 @@
       <c r="I6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1460,8 +1485,11 @@
       <c r="I7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1489,8 +1517,11 @@
       <c r="I8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,8 +1549,11 @@
       <c r="I9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1546,6 +1580,9 @@
       </c>
       <c r="I10" t="s">
         <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
